--- a/QRET_MechBOM_2019_20-Revised.xlsx
+++ b/QRET_MechBOM_2019_20-Revised.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Graeme Barnes\Documents\4th Year\QRET\2019_2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Graeme Barnes\Documents\GitHub\Repository Clone\MechComponents_02102012\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D522922D-3F06-4C4B-83EE-0EC1F4F94229}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB475C3-7661-4C8F-9585-E611AD1794B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{4CB8208B-D72B-40C0-8A49-185F68F2ED3A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{4CB8208B-D72B-40C0-8A49-185F68F2ED3A}"/>
   </bookViews>
   <sheets>
     <sheet name="Avionics" sheetId="1" r:id="rId1"/>
@@ -915,8 +915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A74E661-9377-44F6-A771-BB2163B533D9}">
   <dimension ref="B4:P22"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1297,7 +1297,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="3:14" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:14" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C19" s="8" t="s">
         <v>67</v>
       </c>
@@ -1610,8 +1610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D421F24-F2B9-4156-970A-2DB29852D92A}">
   <dimension ref="C4:Q14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1874,7 +1874,7 @@
         <v>86</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>86</v>
